--- a/Assets/Spreadsheets/Items_Etc.xlsx
+++ b/Assets/Spreadsheets/Items_Etc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Diamond</t>
   </si>
   <si>
+    <t>Dia</t>
+  </si>
+  <si>
     <t>리롤 재화</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>StatReroll</t>
   </si>
   <si>
+    <t>Ruby</t>
+  </si>
+  <si>
     <t>골드 던전 입장권</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>GoldDungeonTicket</t>
   </si>
   <si>
+    <t>GoldTicket</t>
+  </si>
+  <si>
     <t>보스 러시 입장권</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>BossRushTicket</t>
   </si>
   <si>
+    <t>DiaTicket</t>
+  </si>
+  <si>
     <t>약탈 입장권</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>StatRerollGemRushTicket</t>
   </si>
   <si>
+    <t>RerollTicket</t>
+  </si>
+  <si>
     <t>리롤 고정 아이템</t>
   </si>
   <si>
@@ -83,6 +98,21 @@
   </si>
   <si>
     <t>StatRerollLock</t>
+  </si>
+  <si>
+    <t>RerollLock</t>
+  </si>
+  <si>
+    <t>명성</t>
+  </si>
+  <si>
+    <t>Fame</t>
+  </si>
+  <si>
+    <t>보물</t>
+  </si>
+  <si>
+    <t>Treasure</t>
   </si>
 </sst>
 </file>
@@ -373,6 +403,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -387,19 +420,25 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>1000003.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -407,13 +446,16 @@
         <v>1000004.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -421,13 +463,16 @@
         <v>1000005.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -435,13 +480,16 @@
         <v>1000006.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -449,13 +497,50 @@
         <v>1000007.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>1000008.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1000009.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Spreadsheets/Items_Etc.xlsx
+++ b/Assets/Spreadsheets/Items_Etc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Dia</t>
   </si>
   <si>
-    <t>리롤 재화</t>
+    <t>루비</t>
   </si>
   <si>
     <t>무기 능력치 리롤 재화</t>
@@ -91,7 +91,7 @@
     <t>RerollTicket</t>
   </si>
   <si>
-    <t>리롤 고정 아이템</t>
+    <t>오브</t>
   </si>
   <si>
     <t>무기 능력치를 고정시킬 수 있는 아이템</t>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Treasure</t>
+  </si>
+  <si>
+    <t>봉인석</t>
+  </si>
+  <si>
+    <t>각종 희귀한 물건들을 살 수 있는 신비한 돌</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="27.88"/>
+    <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="20.25"/>
   </cols>
   <sheetData>
@@ -543,6 +549,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1000010.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
